--- a/individual_results/avey/21.xlsx
+++ b/individual_results/avey/21.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="L2" t="n">
         <v>0.3333333333333333</v>
@@ -580,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L3" t="n">
         <v>0.3333333333333333</v>
@@ -612,7 +612,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L4" t="n">
         <v>0.3333333333333333</v>
@@ -644,7 +644,7 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="L5" t="n">
         <v>0.3333333333333333</v>
@@ -690,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1976204443201622</v>
+        <v>0.03792347270026269</v>
       </c>
       <c r="L6" t="n">
         <v>0.3726262671130988</v>
